--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>scary</t>
@@ -70,28 +70,31 @@
     <t>shit</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>social</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,10 +466,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -524,13 +527,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -542,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -595,16 +598,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -616,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -624,13 +627,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -642,19 +645,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -674,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -692,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>0.7192982456140351</v>
@@ -724,13 +727,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -742,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.5466666666666666</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -774,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -792,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -816,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -824,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -842,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.4482758620689655</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -874,13 +877,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.525</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -892,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.06284153005464481</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -924,13 +927,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -950,13 +953,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4042553191489361</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -968,7 +971,33 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
